--- a/resources/data-imports/Affixes/base_mod.xlsx
+++ b/resources/data-imports/Affixes/base_mod.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="157">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t xml:space="preserve">resistance_reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">affix_type</t>
   </si>
   <si>
     <t xml:space="preserve">Vile Wickedness</t>
@@ -593,10 +596,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AS56"/>
+  <dimension ref="A1:AT56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AL10" activeCellId="0" sqref="AL10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AI44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AT2" activeCellId="0" sqref="AT2:AT56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -635,6 +638,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="43" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="24.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="17.24"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -773,16 +777,19 @@
       <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="AT1" s="0" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.01</v>
@@ -860,7 +867,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP2" s="1" t="n">
         <v>0</v>
@@ -873,6 +880,9 @@
       </c>
       <c r="AS2" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -880,10 +890,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0.011</v>
@@ -961,7 +971,7 @@
         <v>1383</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP3" s="1" t="n">
         <v>0</v>
@@ -974,6 +984,9 @@
       </c>
       <c r="AS3" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT3" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -981,10 +994,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>0.0122</v>
@@ -1062,7 +1075,7 @@
         <v>1913</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP4" s="1" t="n">
         <v>0</v>
@@ -1075,6 +1088,9 @@
       </c>
       <c r="AS4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT4" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1082,10 +1098,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>0.0134</v>
@@ -1163,7 +1179,7 @@
         <v>2645</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP5" s="1" t="n">
         <v>0</v>
@@ -1176,6 +1192,9 @@
       </c>
       <c r="AS5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT5" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1183,10 +1202,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>0.0148</v>
@@ -1264,7 +1283,7 @@
         <v>3657</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP6" s="1" t="n">
         <v>0</v>
@@ -1277,6 +1296,9 @@
       </c>
       <c r="AS6" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT6" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1284,10 +1306,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>0.0163</v>
@@ -1365,7 +1387,7 @@
         <v>5058</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP7" s="1" t="n">
         <v>0</v>
@@ -1378,6 +1400,9 @@
       </c>
       <c r="AS7" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT7" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1385,10 +1410,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>0.018</v>
@@ -1466,7 +1491,7 @@
         <v>6994</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP8" s="1" t="n">
         <v>0</v>
@@ -1479,6 +1504,9 @@
       </c>
       <c r="AS8" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT8" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1486,10 +1514,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>0.0199</v>
@@ -1567,7 +1595,7 @@
         <v>9671</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP9" s="1" t="n">
         <v>0</v>
@@ -1580,6 +1608,9 @@
       </c>
       <c r="AS9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT9" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1587,10 +1618,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>0.0219</v>
@@ -1668,7 +1699,7 @@
         <v>13400</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP10" s="1" t="n">
         <v>0</v>
@@ -1681,6 +1712,9 @@
       </c>
       <c r="AS10" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT10" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1688,10 +1722,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>0.0242</v>
@@ -1769,7 +1803,7 @@
         <v>18500</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP11" s="1" t="n">
         <v>0</v>
@@ -1782,6 +1816,9 @@
       </c>
       <c r="AS11" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT11" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1789,10 +1826,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>0.0267</v>
@@ -1870,7 +1907,7 @@
         <v>25600</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP12" s="1" t="n">
         <v>0</v>
@@ -1883,6 +1920,9 @@
       </c>
       <c r="AS12" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT12" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1890,10 +1930,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>0.0294</v>
@@ -1971,7 +2011,7 @@
         <v>35400</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP13" s="1" t="n">
         <v>0</v>
@@ -1984,6 +2024,9 @@
       </c>
       <c r="AS13" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1991,10 +2034,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>0.0325</v>
@@ -2072,7 +2115,7 @@
         <v>48900</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP14" s="1" t="n">
         <v>0</v>
@@ -2085,6 +2128,9 @@
       </c>
       <c r="AS14" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT14" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2092,10 +2138,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>0.0358</v>
@@ -2173,7 +2219,7 @@
         <v>67600</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP15" s="1" t="n">
         <v>0</v>
@@ -2186,6 +2232,9 @@
       </c>
       <c r="AS15" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT15" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2193,10 +2242,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>0.0395</v>
@@ -2274,7 +2323,7 @@
         <v>93500</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP16" s="1" t="n">
         <v>0</v>
@@ -2287,6 +2336,9 @@
       </c>
       <c r="AS16" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT16" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2294,10 +2346,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>0.0436</v>
@@ -2375,7 +2427,7 @@
         <v>129300</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP17" s="1" t="n">
         <v>0</v>
@@ -2388,6 +2440,9 @@
       </c>
       <c r="AS17" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT17" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2395,10 +2450,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>0.0481</v>
@@ -2476,7 +2531,7 @@
         <v>178800</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP18" s="1" t="n">
         <v>0</v>
@@ -2489,6 +2544,9 @@
       </c>
       <c r="AS18" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT18" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2496,10 +2554,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>0.053</v>
@@ -2577,7 +2635,7 @@
         <v>247300</v>
       </c>
       <c r="AO19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP19" s="1" t="n">
         <v>0</v>
@@ -2590,6 +2648,9 @@
       </c>
       <c r="AS19" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT19" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2597,10 +2658,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>0.0585</v>
@@ -2678,7 +2739,7 @@
         <v>342000</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP20" s="1" t="n">
         <v>0</v>
@@ -2691,6 +2752,9 @@
       </c>
       <c r="AS20" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT20" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2698,10 +2762,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>0.0645</v>
@@ -2779,7 +2843,7 @@
         <v>472900</v>
       </c>
       <c r="AO21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP21" s="1" t="n">
         <v>0</v>
@@ -2792,6 +2856,9 @@
       </c>
       <c r="AS21" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT21" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2799,10 +2866,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>0.0712</v>
@@ -2880,7 +2947,7 @@
         <v>654000</v>
       </c>
       <c r="AO22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP22" s="1" t="n">
         <v>0</v>
@@ -2893,6 +2960,9 @@
       </c>
       <c r="AS22" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT22" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2900,10 +2970,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>0.0785</v>
@@ -2981,7 +3051,7 @@
         <v>904400</v>
       </c>
       <c r="AO23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP23" s="1" t="n">
         <v>0</v>
@@ -2994,6 +3064,9 @@
       </c>
       <c r="AS23" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT23" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3001,10 +3074,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>0.0866</v>
@@ -3082,7 +3155,7 @@
         <v>1250700</v>
       </c>
       <c r="AO24" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP24" s="1" t="n">
         <v>0</v>
@@ -3095,6 +3168,9 @@
       </c>
       <c r="AS24" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT24" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3102,10 +3178,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>0.0955</v>
@@ -3183,7 +3259,7 @@
         <v>1729500</v>
       </c>
       <c r="AO25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP25" s="1" t="n">
         <v>0</v>
@@ -3196,6 +3272,9 @@
       </c>
       <c r="AS25" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT25" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3203,10 +3282,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>0.1054</v>
@@ -3284,7 +3363,7 @@
         <v>2391600</v>
       </c>
       <c r="AO26" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP26" s="1" t="n">
         <v>0</v>
@@ -3297,6 +3376,9 @@
       </c>
       <c r="AS26" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT26" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3304,10 +3386,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>0.1162</v>
@@ -3385,7 +3467,7 @@
         <v>3307300</v>
       </c>
       <c r="AO27" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP27" s="1" t="n">
         <v>0</v>
@@ -3398,6 +3480,9 @@
       </c>
       <c r="AS27" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT27" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3405,10 +3490,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>0.1282</v>
@@ -3486,7 +3571,7 @@
         <v>4573500</v>
       </c>
       <c r="AO28" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP28" s="1" t="n">
         <v>0</v>
@@ -3499,6 +3584,9 @@
       </c>
       <c r="AS28" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT28" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3506,10 +3594,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>0.1414</v>
@@ -3587,7 +3675,7 @@
         <v>6324600</v>
       </c>
       <c r="AO29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP29" s="1" t="n">
         <v>0</v>
@@ -3600,6 +3688,9 @@
       </c>
       <c r="AS29" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT29" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3607,10 +3698,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>0.2073</v>
@@ -3688,7 +3779,7 @@
         <v>11620200</v>
       </c>
       <c r="AO30" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP30" s="1" t="n">
         <v>0</v>
@@ -3701,6 +3792,9 @@
       </c>
       <c r="AS30" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT30" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3708,10 +3802,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>0.231</v>
@@ -3789,7 +3883,7 @@
         <v>16233100</v>
       </c>
       <c r="AO31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP31" s="1" t="n">
         <v>0</v>
@@ -3802,6 +3896,9 @@
       </c>
       <c r="AS31" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT31" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3809,10 +3906,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>0.2574</v>
@@ -3890,7 +3987,7 @@
         <v>22677100</v>
       </c>
       <c r="AO32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP32" s="1" t="n">
         <v>0</v>
@@ -3903,6 +4000,9 @@
       </c>
       <c r="AS32" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT32" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3910,10 +4010,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>0.2868</v>
@@ -3991,7 +4091,7 @@
         <v>31679200</v>
       </c>
       <c r="AO33" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP33" s="1" t="n">
         <v>0</v>
@@ -4004,6 +4104,9 @@
       </c>
       <c r="AS33" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT33" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4011,10 +4114,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>0.3196</v>
@@ -4092,7 +4195,7 @@
         <v>44254800</v>
       </c>
       <c r="AO34" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP34" s="1" t="n">
         <v>0</v>
@@ -4105,6 +4208,9 @@
       </c>
       <c r="AS34" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT34" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4112,10 +4218,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>0.3561</v>
@@ -4193,7 +4299,7 @@
         <v>61822500</v>
       </c>
       <c r="AO35" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP35" s="1" t="n">
         <v>0</v>
@@ -4206,6 +4312,9 @@
       </c>
       <c r="AS35" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT35" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4213,10 +4322,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>0.3969</v>
@@ -4294,7 +4403,7 @@
         <v>86364000</v>
       </c>
       <c r="AO36" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP36" s="1" t="n">
         <v>0</v>
@@ -4307,6 +4416,9 @@
       </c>
       <c r="AS36" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT36" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4314,10 +4426,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>0.4422</v>
@@ -4395,7 +4507,7 @@
         <v>120647600</v>
       </c>
       <c r="AO37" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP37" s="1" t="n">
         <v>0</v>
@@ -4408,6 +4520,9 @@
       </c>
       <c r="AS37" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT37" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4415,10 +4530,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>0.4928</v>
@@ -4496,7 +4611,7 @@
         <v>168540800</v>
       </c>
       <c r="AO38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP38" s="1" t="n">
         <v>0</v>
@@ -4509,6 +4624,9 @@
       </c>
       <c r="AS38" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT38" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4516,10 +4634,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>0.5492</v>
@@ -4597,7 +4715,7 @@
         <v>235446000</v>
       </c>
       <c r="AO39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP39" s="1" t="n">
         <v>0</v>
@@ -4610,6 +4728,9 @@
       </c>
       <c r="AS39" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT39" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4617,10 +4738,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>0.612</v>
@@ -4698,7 +4819,7 @@
         <v>328910400</v>
       </c>
       <c r="AO40" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP40" s="1" t="n">
         <v>0</v>
@@ -4711,6 +4832,9 @@
       </c>
       <c r="AS40" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT40" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4718,10 +4842,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>0.6819</v>
@@ -4799,7 +4923,7 @@
         <v>459477100</v>
       </c>
       <c r="AO41" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP41" s="1" t="n">
         <v>0</v>
@@ -4812,6 +4936,9 @@
       </c>
       <c r="AS41" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT41" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4819,10 +4946,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>0.7599</v>
@@ -4900,7 +5027,7 @@
         <v>641874500</v>
       </c>
       <c r="AO42" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP42" s="1" t="n">
         <v>0</v>
@@ -4913,6 +5040,9 @@
       </c>
       <c r="AS42" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT42" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4920,10 +5050,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>0.88</v>
@@ -5001,7 +5131,7 @@
         <v>896677700</v>
       </c>
       <c r="AO43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP43" s="1" t="n">
         <v>0</v>
@@ -5014,6 +5144,9 @@
       </c>
       <c r="AS43" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT43" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5021,10 +5154,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>0.96</v>
@@ -5102,7 +5235,7 @@
         <v>1252629500</v>
       </c>
       <c r="AO44" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP44" s="1" t="n">
         <v>0</v>
@@ -5115,6 +5248,9 @@
       </c>
       <c r="AS44" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT44" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5122,10 +5258,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="1" t="n">
         <v>1.04</v>
@@ -5203,7 +5339,7 @@
         <v>1749882400</v>
       </c>
       <c r="AO45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP45" s="1" t="n">
         <v>0</v>
@@ -5216,6 +5352,9 @@
       </c>
       <c r="AS45" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT45" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5223,10 +5362,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>1.12</v>
@@ -5304,7 +5443,7 @@
         <v>2444528600</v>
       </c>
       <c r="AO46" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP46" s="1" t="n">
         <v>0</v>
@@ -5317,6 +5456,9 @@
       </c>
       <c r="AS46" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT46" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5324,10 +5466,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>1.2</v>
@@ -5405,7 +5547,7 @@
         <v>3414926700</v>
       </c>
       <c r="AO47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP47" s="1" t="n">
         <v>0</v>
@@ -5418,6 +5560,9 @@
       </c>
       <c r="AS47" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT47" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5425,10 +5570,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="1" t="n">
         <v>1.28</v>
@@ -5506,7 +5651,7 @@
         <v>4770541000</v>
       </c>
       <c r="AO48" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP48" s="1" t="n">
         <v>0</v>
@@ -5519,6 +5664,9 @@
       </c>
       <c r="AS48" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT48" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5526,10 +5674,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D49" s="1" t="n">
         <v>1.36</v>
@@ -5607,7 +5755,7 @@
         <v>6664290000</v>
       </c>
       <c r="AO49" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP49" s="1" t="n">
         <v>0</v>
@@ -5620,6 +5768,9 @@
       </c>
       <c r="AS49" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT49" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5627,10 +5778,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>1.44</v>
@@ -5708,7 +5859,7 @@
         <v>9309795500</v>
       </c>
       <c r="AO50" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP50" s="1" t="n">
         <v>0</v>
@@ -5721,6 +5872,9 @@
       </c>
       <c r="AS50" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT50" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5728,10 +5882,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>1.52</v>
@@ -5809,7 +5963,7 @@
         <v>13005480200</v>
       </c>
       <c r="AO51" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP51" s="1" t="n">
         <v>0</v>
@@ -5822,6 +5976,9 @@
       </c>
       <c r="AS51" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT51" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5829,10 +5986,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>1.6</v>
@@ -5910,7 +6067,7 @@
         <v>18168231100</v>
       </c>
       <c r="AO52" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP52" s="1" t="n">
         <v>0</v>
@@ -5923,6 +6080,9 @@
       </c>
       <c r="AS52" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT52" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5930,10 +6090,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>1.68</v>
@@ -6011,7 +6171,7 @@
         <v>25380425500</v>
       </c>
       <c r="AO53" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP53" s="1" t="n">
         <v>0</v>
@@ -6024,6 +6184,9 @@
       </c>
       <c r="AS53" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT53" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6031,10 +6194,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D54" s="1" t="n">
         <v>1.76</v>
@@ -6112,7 +6275,7 @@
         <v>35455625500</v>
       </c>
       <c r="AO54" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP54" s="1" t="n">
         <v>0</v>
@@ -6125,6 +6288,9 @@
       </c>
       <c r="AS54" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT54" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6132,10 +6298,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D55" s="1" t="n">
         <v>1.84</v>
@@ -6213,7 +6379,7 @@
         <v>39001188050</v>
       </c>
       <c r="AO55" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP55" s="1" t="n">
         <v>0</v>
@@ -6226,6 +6392,9 @@
       </c>
       <c r="AS55" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT55" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6233,10 +6402,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>2</v>
@@ -6314,7 +6483,7 @@
         <v>40000000000</v>
       </c>
       <c r="AO56" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP56" s="1" t="n">
         <v>0</v>
@@ -6327,6 +6496,9 @@
       </c>
       <c r="AS56" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AT56" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
